--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-Ccr5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H2">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I2">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J2">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.188809412900946</v>
+        <v>0.320495</v>
       </c>
       <c r="N2">
-        <v>0.188809412900946</v>
+        <v>0.6409900000000001</v>
       </c>
       <c r="O2">
-        <v>0.001765855969444405</v>
+        <v>0.00294011664142989</v>
       </c>
       <c r="P2">
-        <v>0.001765855969444405</v>
+        <v>0.001962000597822644</v>
       </c>
       <c r="Q2">
-        <v>36.78616749157767</v>
+        <v>62.5219205430575</v>
       </c>
       <c r="R2">
-        <v>36.78616749157767</v>
+        <v>250.08768217223</v>
       </c>
       <c r="S2">
-        <v>0.0004730509296194185</v>
+        <v>0.0007763688241592597</v>
       </c>
       <c r="T2">
-        <v>0.0004730509296194185</v>
+        <v>0.0003889286073766305</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H3">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I3">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J3">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>47.4832128187357</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N3">
-        <v>47.4832128187357</v>
+        <v>0.034127</v>
       </c>
       <c r="O3">
-        <v>0.4440907554135159</v>
+        <v>0.0001043566572771055</v>
       </c>
       <c r="P3">
-        <v>0.4440907554135159</v>
+        <v>0.0001044590311890878</v>
       </c>
       <c r="Q3">
-        <v>9251.26238650302</v>
+        <v>2.219156390763167</v>
       </c>
       <c r="R3">
-        <v>9251.26238650302</v>
+        <v>13.314938344579</v>
       </c>
       <c r="S3">
-        <v>0.1189664096726137</v>
+        <v>2.755647655666292E-05</v>
       </c>
       <c r="T3">
-        <v>0.1189664096726137</v>
+        <v>2.070697917899229E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H4">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I4">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J4">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.2502954250811</v>
+        <v>48.78764200000001</v>
       </c>
       <c r="N4">
-        <v>59.2502954250811</v>
+        <v>146.362926</v>
       </c>
       <c r="O4">
-        <v>0.5541433886170396</v>
+        <v>0.4475619218406647</v>
       </c>
       <c r="P4">
-        <v>0.5541433886170396</v>
+        <v>0.4480009802197716</v>
       </c>
       <c r="Q4">
-        <v>11543.86986297107</v>
+        <v>9517.456049570617</v>
       </c>
       <c r="R4">
-        <v>11543.86986297107</v>
+        <v>57104.73629742371</v>
       </c>
       <c r="S4">
-        <v>0.1484481462042583</v>
+        <v>0.1181834482692176</v>
       </c>
       <c r="T4">
-        <v>0.1484481462042583</v>
+        <v>0.08880751490779705</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>58.8030057710976</v>
+        <v>195.0792385</v>
       </c>
       <c r="H5">
-        <v>58.8030057710976</v>
+        <v>390.158477</v>
       </c>
       <c r="I5">
-        <v>0.08085208918389093</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J5">
-        <v>0.08085208918389093</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.188809412900946</v>
+        <v>59.61647133333333</v>
       </c>
       <c r="N5">
-        <v>0.188809412900946</v>
+        <v>178.849414</v>
       </c>
       <c r="O5">
-        <v>0.001765855969444405</v>
+        <v>0.5469020717030258</v>
       </c>
       <c r="P5">
-        <v>0.001765855969444405</v>
+        <v>0.5474385827988417</v>
       </c>
       <c r="Q5">
-        <v>11.10256099645188</v>
+        <v>11629.93582976375</v>
       </c>
       <c r="R5">
-        <v>11.10256099645188</v>
+        <v>69779.61497858248</v>
       </c>
       <c r="S5">
-        <v>0.0001427731443274252</v>
+        <v>0.1444152631073315</v>
       </c>
       <c r="T5">
-        <v>0.0001427731443274252</v>
+        <v>0.1085190931483275</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>58.8030057710976</v>
+        <v>195.0792385</v>
       </c>
       <c r="H6">
-        <v>58.8030057710976</v>
+        <v>390.158477</v>
       </c>
       <c r="I6">
-        <v>0.08085208918389093</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J6">
-        <v>0.08085208918389093</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>47.4832128187357</v>
+        <v>0.271596</v>
       </c>
       <c r="N6">
-        <v>47.4832128187357</v>
+        <v>0.814788</v>
       </c>
       <c r="O6">
-        <v>0.4440907554135159</v>
+        <v>0.002491533157602434</v>
       </c>
       <c r="P6">
-        <v>0.4440907554135159</v>
+        <v>0.00249397735237479</v>
       </c>
       <c r="Q6">
-        <v>2792.155637410371</v>
+        <v>52.982740859646</v>
       </c>
       <c r="R6">
-        <v>2792.155637410371</v>
+        <v>317.896445157876</v>
       </c>
       <c r="S6">
-        <v>0.03590566536243509</v>
+        <v>0.0006579156216676024</v>
       </c>
       <c r="T6">
-        <v>0.03590566536243509</v>
+        <v>0.0004943826926273265</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H7">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I7">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J7">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.2502954250811</v>
+        <v>0.320495</v>
       </c>
       <c r="N7">
-        <v>59.2502954250811</v>
+        <v>0.6409900000000001</v>
       </c>
       <c r="O7">
-        <v>0.5541433886170396</v>
+        <v>0.00294011664142989</v>
       </c>
       <c r="P7">
-        <v>0.5541433886170396</v>
+        <v>0.001962000597822644</v>
       </c>
       <c r="Q7">
-        <v>3484.095463820282</v>
+        <v>20.00142706822167</v>
       </c>
       <c r="R7">
-        <v>3484.095463820282</v>
+        <v>120.00856240933</v>
       </c>
       <c r="S7">
-        <v>0.04480365067712842</v>
+        <v>0.0002483686406237043</v>
       </c>
       <c r="T7">
-        <v>0.04480365067712842</v>
+        <v>0.0001866335944486393</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>142.756572049817</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H8">
-        <v>142.756572049817</v>
+        <v>187.223767</v>
       </c>
       <c r="I8">
-        <v>0.1962853249354044</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J8">
-        <v>0.1962853249354044</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.188809412900946</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N8">
-        <v>0.188809412900946</v>
+        <v>0.034127</v>
       </c>
       <c r="O8">
-        <v>0.001765855969444405</v>
+        <v>0.0001043566572771055</v>
       </c>
       <c r="P8">
-        <v>0.001765855969444405</v>
+        <v>0.0001044590311890878</v>
       </c>
       <c r="Q8">
-        <v>26.95378455647755</v>
+        <v>0.7099317218232223</v>
       </c>
       <c r="R8">
-        <v>26.95378455647755</v>
+        <v>6.389385496409</v>
       </c>
       <c r="S8">
-        <v>0.0003466116127515187</v>
+        <v>8.81560981041322E-06</v>
       </c>
       <c r="T8">
-        <v>0.0003466116127515187</v>
+        <v>9.93657417081189E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,57 +971,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>142.756572049817</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H9">
-        <v>142.756572049817</v>
+        <v>187.223767</v>
       </c>
       <c r="I9">
-        <v>0.1962853249354044</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J9">
-        <v>0.1962853249354044</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>47.4832128187357</v>
+        <v>48.78764200000001</v>
       </c>
       <c r="N9">
-        <v>47.4832128187357</v>
+        <v>146.362926</v>
       </c>
       <c r="O9">
-        <v>0.4440907554135159</v>
+        <v>0.4475619218406647</v>
       </c>
       <c r="P9">
-        <v>0.4440907554135159</v>
+        <v>0.4480009802197716</v>
       </c>
       <c r="Q9">
-        <v>6778.540691914638</v>
+        <v>3044.735372762472</v>
       </c>
       <c r="R9">
-        <v>6778.540691914638</v>
+        <v>27402.61835486225</v>
       </c>
       <c r="S9">
-        <v>0.0871684982271512</v>
+        <v>0.03780814153973055</v>
       </c>
       <c r="T9">
-        <v>0.0871684982271512</v>
+        <v>0.0426157022315484</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1033,57 +1033,57 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>142.756572049817</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H10">
-        <v>142.756572049817</v>
+        <v>187.223767</v>
       </c>
       <c r="I10">
-        <v>0.1962853249354044</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J10">
-        <v>0.1962853249354044</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.2502954250811</v>
+        <v>59.61647133333333</v>
       </c>
       <c r="N10">
-        <v>59.2502954250811</v>
+        <v>178.849414</v>
       </c>
       <c r="O10">
-        <v>0.5541433886170396</v>
+        <v>0.5469020717030258</v>
       </c>
       <c r="P10">
-        <v>0.5541433886170396</v>
+        <v>0.5474385827988417</v>
       </c>
       <c r="Q10">
-        <v>8458.369067823533</v>
+        <v>3720.54011275806</v>
       </c>
       <c r="R10">
-        <v>8458.369067823533</v>
+        <v>33484.86101482254</v>
       </c>
       <c r="S10">
-        <v>0.1087702150955017</v>
+        <v>0.04619997798356303</v>
       </c>
       <c r="T10">
-        <v>0.1087702150955017</v>
+        <v>0.05207461738849715</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>140.754469995774</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H11">
-        <v>140.754469995774</v>
+        <v>187.223767</v>
       </c>
       <c r="I11">
-        <v>0.1935325041959534</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J11">
-        <v>0.1935325041959534</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.188809412900946</v>
+        <v>0.271596</v>
       </c>
       <c r="N11">
-        <v>0.188809412900946</v>
+        <v>0.814788</v>
       </c>
       <c r="O11">
-        <v>0.001765855969444405</v>
+        <v>0.002491533157602434</v>
       </c>
       <c r="P11">
-        <v>0.001765855969444405</v>
+        <v>0.00249397735237479</v>
       </c>
       <c r="Q11">
-        <v>26.57576884308591</v>
+        <v>16.949742074044</v>
       </c>
       <c r="R11">
-        <v>26.57576884308591</v>
+        <v>152.547678666396</v>
       </c>
       <c r="S11">
-        <v>0.0003417505278159488</v>
+        <v>0.0002104742018403893</v>
       </c>
       <c r="T11">
-        <v>0.0003417505278159488</v>
+        <v>0.0002372374189201359</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>140.754469995774</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H12">
-        <v>140.754469995774</v>
+        <v>428.586334</v>
       </c>
       <c r="I12">
-        <v>0.1935325041959534</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J12">
-        <v>0.1935325041959534</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.4832128187357</v>
+        <v>0.320495</v>
       </c>
       <c r="N12">
-        <v>47.4832128187357</v>
+        <v>0.6409900000000001</v>
       </c>
       <c r="O12">
-        <v>0.4440907554135159</v>
+        <v>0.00294011664142989</v>
       </c>
       <c r="P12">
-        <v>0.4440907554135159</v>
+        <v>0.001962000597822644</v>
       </c>
       <c r="Q12">
-        <v>6683.474453997685</v>
+        <v>45.78659237177667</v>
       </c>
       <c r="R12">
-        <v>6683.474453997685</v>
+        <v>274.71955423066</v>
       </c>
       <c r="S12">
-        <v>0.0859459959854504</v>
+        <v>0.0005685571168188112</v>
       </c>
       <c r="T12">
-        <v>0.0859459959854504</v>
+        <v>0.0004272353308967715</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>140.754469995774</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H13">
-        <v>140.754469995774</v>
+        <v>428.586334</v>
       </c>
       <c r="I13">
-        <v>0.1935325041959534</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J13">
-        <v>0.1935325041959534</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>59.2502954250811</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N13">
-        <v>59.2502954250811</v>
+        <v>0.034127</v>
       </c>
       <c r="O13">
-        <v>0.5541433886170396</v>
+        <v>0.0001043566572771055</v>
       </c>
       <c r="P13">
-        <v>0.5541433886170396</v>
+        <v>0.0001044590311890878</v>
       </c>
       <c r="Q13">
-        <v>8339.743929650323</v>
+        <v>1.625151757824222</v>
       </c>
       <c r="R13">
-        <v>8339.743929650323</v>
+        <v>14.626365820418</v>
       </c>
       <c r="S13">
-        <v>0.1072447576826871</v>
+        <v>2.018039670475937E-05</v>
       </c>
       <c r="T13">
-        <v>0.1072447576826871</v>
+        <v>2.274647051828284E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>137.199828146352</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H14">
-        <v>137.199828146352</v>
+        <v>428.586334</v>
       </c>
       <c r="I14">
-        <v>0.1886449951977736</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J14">
-        <v>0.1886449951977736</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.188809412900946</v>
+        <v>48.78764200000001</v>
       </c>
       <c r="N14">
-        <v>0.188809412900946</v>
+        <v>146.362926</v>
       </c>
       <c r="O14">
-        <v>0.001765855969444405</v>
+        <v>0.4475619218406647</v>
       </c>
       <c r="P14">
-        <v>0.001765855969444405</v>
+        <v>0.4480009802197716</v>
       </c>
       <c r="Q14">
-        <v>25.90461900242341</v>
+        <v>6969.90554309481</v>
       </c>
       <c r="R14">
-        <v>25.90461900242341</v>
+        <v>62729.14988785329</v>
       </c>
       <c r="S14">
-        <v>0.0003331198908757997</v>
+        <v>0.08654912267557478</v>
       </c>
       <c r="T14">
-        <v>0.0003331198908757997</v>
+        <v>0.0975544284944066</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,122 +1340,122 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>137.199828146352</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H15">
-        <v>137.199828146352</v>
+        <v>428.586334</v>
       </c>
       <c r="I15">
-        <v>0.1886449951977736</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J15">
-        <v>0.1886449951977736</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>47.4832128187357</v>
+        <v>59.61647133333333</v>
       </c>
       <c r="N15">
-        <v>47.4832128187357</v>
+        <v>178.849414</v>
       </c>
       <c r="O15">
-        <v>0.4440907554135159</v>
+        <v>0.5469020717030258</v>
       </c>
       <c r="P15">
-        <v>0.4440907554135159</v>
+        <v>0.5474385827988417</v>
       </c>
       <c r="Q15">
-        <v>6514.688638567196</v>
+        <v>8516.934964923141</v>
       </c>
       <c r="R15">
-        <v>6514.688638567196</v>
+        <v>76652.41468430827</v>
       </c>
       <c r="S15">
-        <v>0.08377549842235836</v>
+        <v>0.1057594316797183</v>
       </c>
       <c r="T15">
-        <v>0.08377549842235836</v>
+        <v>0.1192074581054052</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>137.199828146352</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H16">
-        <v>137.199828146352</v>
+        <v>428.586334</v>
       </c>
       <c r="I16">
-        <v>0.1886449951977736</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J16">
-        <v>0.1886449951977736</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>59.2502954250811</v>
+        <v>0.271596</v>
       </c>
       <c r="N16">
-        <v>59.2502954250811</v>
+        <v>0.814788</v>
       </c>
       <c r="O16">
-        <v>0.5541433886170396</v>
+        <v>0.002491533157602434</v>
       </c>
       <c r="P16">
-        <v>0.5541433886170396</v>
+        <v>0.00249397735237479</v>
       </c>
       <c r="Q16">
-        <v>8129.130349941713</v>
+        <v>38.800777989688</v>
       </c>
       <c r="R16">
-        <v>8129.130349941713</v>
+        <v>349.207001907192</v>
       </c>
       <c r="S16">
-        <v>0.1045363768845394</v>
+        <v>0.0004818104454032725</v>
       </c>
       <c r="T16">
-        <v>0.1045363768845394</v>
+        <v>0.0005430758994535307</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,57 +1467,57 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>52.9449598765086</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H17">
-        <v>52.9449598765086</v>
+        <v>424.850525</v>
       </c>
       <c r="I17">
-        <v>0.07279747968048636</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J17">
-        <v>0.07279747968048636</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.188809412900946</v>
+        <v>0.320495</v>
       </c>
       <c r="N17">
-        <v>0.188809412900946</v>
+        <v>0.6409900000000001</v>
       </c>
       <c r="O17">
-        <v>0.001765855969444405</v>
+        <v>0.00294011664142989</v>
       </c>
       <c r="P17">
-        <v>0.001765855969444405</v>
+        <v>0.001962000597822644</v>
       </c>
       <c r="Q17">
-        <v>9.99650679034773</v>
+        <v>45.38748966995833</v>
       </c>
       <c r="R17">
-        <v>9.99650679034773</v>
+        <v>272.32493801975</v>
       </c>
       <c r="S17">
-        <v>0.0001285498640542946</v>
+        <v>0.0005636012406614866</v>
       </c>
       <c r="T17">
-        <v>0.0001285498640542946</v>
+        <v>0.0004235112980294937</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,861 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>52.9449598765086</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H18">
-        <v>52.9449598765086</v>
+        <v>424.850525</v>
       </c>
       <c r="I18">
-        <v>0.07279747968048636</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J18">
-        <v>0.07279747968048636</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>47.4832128187357</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N18">
-        <v>47.4832128187357</v>
+        <v>0.034127</v>
       </c>
       <c r="O18">
-        <v>0.4440907554135159</v>
+        <v>0.0001043566572771055</v>
       </c>
       <c r="P18">
-        <v>0.4440907554135159</v>
+        <v>0.0001044590311890878</v>
       </c>
       <c r="Q18">
-        <v>2513.99679749568</v>
+        <v>1.610985985186111</v>
       </c>
       <c r="R18">
-        <v>2513.99679749568</v>
+        <v>14.498873866675</v>
       </c>
       <c r="S18">
-        <v>0.03232868774350726</v>
+        <v>2.00044925714437E-05</v>
       </c>
       <c r="T18">
-        <v>0.03232868774350726</v>
+        <v>2.254819898571355E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>141.6168416666667</v>
+      </c>
+      <c r="H19">
+        <v>424.850525</v>
+      </c>
+      <c r="I19">
+        <v>0.1916934970264942</v>
+      </c>
+      <c r="J19">
+        <v>0.2158568649262854</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>48.78764200000001</v>
+      </c>
+      <c r="N19">
+        <v>146.362926</v>
+      </c>
+      <c r="O19">
+        <v>0.4475619218406647</v>
+      </c>
+      <c r="P19">
+        <v>0.4480009802197716</v>
+      </c>
+      <c r="Q19">
+        <v>6909.151772404017</v>
+      </c>
+      <c r="R19">
+        <v>62182.36595163616</v>
+      </c>
+      <c r="S19">
+        <v>0.08579470993353547</v>
+      </c>
+      <c r="T19">
+        <v>0.0967040870741427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>141.6168416666667</v>
+      </c>
+      <c r="H20">
+        <v>424.850525</v>
+      </c>
+      <c r="I20">
+        <v>0.1916934970264942</v>
+      </c>
+      <c r="J20">
+        <v>0.2158568649262854</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>59.61647133333333</v>
+      </c>
+      <c r="N20">
+        <v>178.849414</v>
+      </c>
+      <c r="O20">
+        <v>0.5469020717030258</v>
+      </c>
+      <c r="P20">
+        <v>0.5474385827988417</v>
+      </c>
+      <c r="Q20">
+        <v>8442.696381538039</v>
+      </c>
+      <c r="R20">
+        <v>75984.26743384235</v>
+      </c>
+      <c r="S20">
+        <v>0.1048375706557875</v>
+      </c>
+      <c r="T20">
+        <v>0.1181683762226467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>141.6168416666667</v>
+      </c>
+      <c r="H21">
+        <v>424.850525</v>
+      </c>
+      <c r="I21">
+        <v>0.1916934970264942</v>
+      </c>
+      <c r="J21">
+        <v>0.2158568649262854</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.271596</v>
+      </c>
+      <c r="N21">
+        <v>0.814788</v>
+      </c>
+      <c r="O21">
+        <v>0.002491533157602434</v>
+      </c>
+      <c r="P21">
+        <v>0.00249397735237479</v>
+      </c>
+      <c r="Q21">
+        <v>38.4625677293</v>
+      </c>
+      <c r="R21">
+        <v>346.1631095637</v>
+      </c>
+      <c r="S21">
+        <v>0.0004776107039382738</v>
+      </c>
+      <c r="T21">
+        <v>0.0005383421324807798</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>143.783834</v>
+      </c>
+      <c r="H22">
+        <v>431.351502</v>
+      </c>
+      <c r="I22">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J22">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.320495</v>
+      </c>
+      <c r="N22">
+        <v>0.6409900000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.00294011664142989</v>
+      </c>
+      <c r="P22">
+        <v>0.001962000597822644</v>
+      </c>
+      <c r="Q22">
+        <v>46.08199987783</v>
+      </c>
+      <c r="R22">
+        <v>276.49199926698</v>
+      </c>
+      <c r="S22">
+        <v>0.0005722253531130642</v>
+      </c>
+      <c r="T22">
+        <v>0.0004299917824486429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>143.783834</v>
+      </c>
+      <c r="H23">
+        <v>431.351502</v>
+      </c>
+      <c r="I23">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J23">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.01137566666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.034127</v>
+      </c>
+      <c r="O23">
+        <v>0.0001043566572771055</v>
+      </c>
+      <c r="P23">
+        <v>0.0001044590311890878</v>
+      </c>
+      <c r="Q23">
+        <v>1.635636967639333</v>
+      </c>
+      <c r="R23">
+        <v>14.720732708754</v>
+      </c>
+      <c r="S23">
+        <v>2.031059727992588E-05</v>
+      </c>
+      <c r="T23">
+        <v>2.289322697643463E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>143.783834</v>
+      </c>
+      <c r="H24">
+        <v>431.351502</v>
+      </c>
+      <c r="I24">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J24">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>48.78764200000001</v>
+      </c>
+      <c r="N24">
+        <v>146.362926</v>
+      </c>
+      <c r="O24">
+        <v>0.4475619218406647</v>
+      </c>
+      <c r="P24">
+        <v>0.4480009802197716</v>
+      </c>
+      <c r="Q24">
+        <v>7014.874218579428</v>
+      </c>
+      <c r="R24">
+        <v>63133.86796721486</v>
+      </c>
+      <c r="S24">
+        <v>0.08710752327182564</v>
+      </c>
+      <c r="T24">
+        <v>0.09818383349995916</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>143.783834</v>
+      </c>
+      <c r="H25">
+        <v>431.351502</v>
+      </c>
+      <c r="I25">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J25">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>59.61647133333333</v>
+      </c>
+      <c r="N25">
+        <v>178.849414</v>
+      </c>
+      <c r="O25">
+        <v>0.5469020717030258</v>
+      </c>
+      <c r="P25">
+        <v>0.5474385827988417</v>
+      </c>
+      <c r="Q25">
+        <v>8571.884817857757</v>
+      </c>
+      <c r="R25">
+        <v>77146.96336071982</v>
+      </c>
+      <c r="S25">
+        <v>0.1064417740060579</v>
+      </c>
+      <c r="T25">
+        <v>0.119976564869585</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>143.783834</v>
+      </c>
+      <c r="H26">
+        <v>431.351502</v>
+      </c>
+      <c r="I26">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J26">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.271596</v>
+      </c>
+      <c r="N26">
+        <v>0.814788</v>
+      </c>
+      <c r="O26">
+        <v>0.002491533157602434</v>
+      </c>
+      <c r="P26">
+        <v>0.00249397735237479</v>
+      </c>
+      <c r="Q26">
+        <v>39.05111417906399</v>
+      </c>
+      <c r="R26">
+        <v>351.460027611576</v>
+      </c>
+      <c r="S26">
+        <v>0.0004849190065495429</v>
+      </c>
+      <c r="T26">
+        <v>0.0005465797351561878</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H27">
+        <v>106.034229</v>
+      </c>
+      <c r="I27">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J27">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.320495</v>
+      </c>
+      <c r="N27">
+        <v>0.6409900000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.00294011664142989</v>
+      </c>
+      <c r="P27">
+        <v>0.001962000597822644</v>
+      </c>
+      <c r="Q27">
+        <v>16.9917201116775</v>
+      </c>
+      <c r="R27">
+        <v>67.96688044671001</v>
+      </c>
+      <c r="S27">
+        <v>0.0002109954660535639</v>
+      </c>
+      <c r="T27">
+        <v>0.0001056999846224659</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H28">
+        <v>106.034229</v>
+      </c>
+      <c r="I28">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J28">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.01137566666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.034127</v>
+      </c>
+      <c r="O28">
+        <v>0.0001043566572771055</v>
+      </c>
+      <c r="P28">
+        <v>0.0001044590311890878</v>
+      </c>
+      <c r="Q28">
+        <v>0.6031050221805</v>
+      </c>
+      <c r="R28">
+        <v>3.618630133083</v>
+      </c>
+      <c r="S28">
+        <v>7.489084353900448E-06</v>
+      </c>
+      <c r="T28">
+        <v>5.627581358852548E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H29">
+        <v>106.034229</v>
+      </c>
+      <c r="I29">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J29">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>48.78764200000001</v>
+      </c>
+      <c r="N29">
+        <v>146.362926</v>
+      </c>
+      <c r="O29">
+        <v>0.4475619218406647</v>
+      </c>
+      <c r="P29">
+        <v>0.4480009802197716</v>
+      </c>
+      <c r="Q29">
+        <v>2586.58000209901</v>
+      </c>
+      <c r="R29">
+        <v>15519.48001259406</v>
+      </c>
+      <c r="S29">
+        <v>0.03211897615078059</v>
+      </c>
+      <c r="T29">
+        <v>0.02413541401191769</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>52.9449598765086</v>
-      </c>
-      <c r="H19">
-        <v>52.9449598765086</v>
-      </c>
-      <c r="I19">
-        <v>0.07279747968048636</v>
-      </c>
-      <c r="J19">
-        <v>0.07279747968048636</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>59.2502954250811</v>
-      </c>
-      <c r="N19">
-        <v>59.2502954250811</v>
-      </c>
-      <c r="O19">
-        <v>0.5541433886170396</v>
-      </c>
-      <c r="P19">
-        <v>0.5541433886170396</v>
-      </c>
-      <c r="Q19">
-        <v>3137.0045139522</v>
-      </c>
-      <c r="R19">
-        <v>3137.0045139522</v>
-      </c>
-      <c r="S19">
-        <v>0.0403402420729248</v>
-      </c>
-      <c r="T19">
-        <v>0.0403402420729248</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H30">
+        <v>106.034229</v>
+      </c>
+      <c r="I30">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J30">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>59.61647133333333</v>
+      </c>
+      <c r="N30">
+        <v>178.849414</v>
+      </c>
+      <c r="O30">
+        <v>0.5469020717030258</v>
+      </c>
+      <c r="P30">
+        <v>0.5474385827988417</v>
+      </c>
+      <c r="Q30">
+        <v>3160.693286765301</v>
+      </c>
+      <c r="R30">
+        <v>18964.15972059181</v>
+      </c>
+      <c r="S30">
+        <v>0.0392480542705677</v>
+      </c>
+      <c r="T30">
+        <v>0.02949247306438017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H31">
+        <v>106.034229</v>
+      </c>
+      <c r="I31">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J31">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.271596</v>
+      </c>
+      <c r="N31">
+        <v>0.814788</v>
+      </c>
+      <c r="O31">
+        <v>0.002491533157602434</v>
+      </c>
+      <c r="P31">
+        <v>0.00249397735237479</v>
+      </c>
+      <c r="Q31">
+        <v>14.399236229742</v>
+      </c>
+      <c r="R31">
+        <v>86.39541737845201</v>
+      </c>
+      <c r="S31">
+        <v>0.0001788031782033533</v>
+      </c>
+      <c r="T31">
+        <v>0.0001343594737368286</v>
       </c>
     </row>
   </sheetData>
